--- a/biology/Zoologie/Colopea/Colopea.xlsx
+++ b/biology/Zoologie/Colopea/Colopea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colopea est un genre d'araignées aranéomorphes de la famille des Stenochilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colopea est un genre d'araignées aranéomorphes de la famille des Stenochilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Océanie et en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Océanie et en Chine.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Colopea vit dans la litière des forêts tropicales sèches ou humides.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colopea est facilement reconnaissable à la forme particulière de sa carapace en forme de diamant d'où son surnom d'araignée à tête en pointe de diamant. Elle a six filières et deux paires postérieures de taille réduite[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colopea est facilement reconnaissable à la forme particulière de sa carapace en forme de diamant d'où son surnom d'araignée à tête en pointe de diamant. Elle a six filières et deux paires postérieures de taille réduite.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 08/10/2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 08/10/2022) :
 Colopea laeta (Thorell, 1895)
 Colopea lehtineni Zheng, Marusik &amp; Li, 2009
 Colopea malayana Lehtinen, 1982
@@ -644,9 +664,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1893 dans les Palpimanidae. Il est placé dans les Stenochilidae par Platnick et Shadab en 1974[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1893 dans les Palpimanidae. Il est placé dans les Stenochilidae par Platnick et Shadab en 1974.
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1893 : Histoire naturelle des araignées. Paris, vol. 1, p. 257-488 (texte intégral).</t>
         </is>
